--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>926182.1899071918</v>
+        <v>951129.8528506141</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3754556.370457228</v>
+        <v>4976754.983908116</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10057875.89654494</v>
+        <v>9493494.951020047</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>2.834206670628064</v>
+        <v>99.59933623926791</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -718,13 +718,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498662</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.08802744677224</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>127.6496787807629</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>46.36893455027572</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>32.97988876732368</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.0880274467727</v>
+        <v>114.0495374903437</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>103.6450161510094</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>215.7030122770228</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247631</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>9.840185450213703</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,13 +1375,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>9.099573361141172</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>166.1727706865539</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396202</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>94.57983363107921</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>20.95866062610893</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>16.34825474388549</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>113.1061620820469</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>105.8494828513097</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>229.3895329778231</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,13 +1849,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>44.28190385754232</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>360.9936559895468</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>90.39866052803926</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>185.2941738792784</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041371</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>299.2587842582826</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>20.95866062610927</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>53.54735467376801</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>22.03932652310337</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.63953186650195</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>69.10185605606991</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>342.7426194300855</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2481,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>14.520492193715</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>16.1371631634884</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>78.71085334059831</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>85.78058633381785</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.4149465016521</v>
       </c>
       <c r="H26" t="n">
-        <v>289.4177123989346</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>22.03932652310337</v>
@@ -2608,16 +2608,16 @@
         <v>97.63953186650195</v>
       </c>
       <c r="T26" t="n">
-        <v>201.6995444026096</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.9546296267578</v>
       </c>
       <c r="V26" t="n">
-        <v>313.2597106905267</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>218.5776571846122</v>
       </c>
       <c r="U28" t="n">
         <v>286.1994387321036</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>16.1371631634884</v>
+        <v>23.26916136791345</v>
       </c>
     </row>
     <row r="29">
@@ -2800,16 +2800,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>353.3926942618308</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>190.0990901587875</v>
+        <v>410.4149465016521</v>
       </c>
       <c r="H29" t="n">
-        <v>289.4177123989346</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>22.03932652310337</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>97.63953186650195</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>76.04833397450007</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.7984845780255</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1994387321036</v>
+        <v>109.5353043453253</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>151.6931498592203</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>410.4149465016521</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>289.4177123989346</v>
       </c>
       <c r="I32" t="n">
         <v>22.03932652310337</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>97.63953186650195</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>201.6995444026096</v>
+        <v>107.4364021272715</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>16.13716316348843</v>
+        <v>165.7984845780255</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1994387321036</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>201.3302577549045</v>
       </c>
     </row>
     <row r="35">
@@ -3274,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>223.4352987377897</v>
+        <v>410.4149465016521</v>
       </c>
       <c r="H35" t="n">
-        <v>289.4177123989346</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>22.0393265231034</v>
+        <v>22.03932652310337</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.63953186650197</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>167.3881951467262</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3362,10 +3362,10 @@
         <v>134.7283184148174</v>
       </c>
       <c r="H36" t="n">
-        <v>86.978130008593</v>
+        <v>86.97813000859298</v>
       </c>
       <c r="I36" t="n">
-        <v>9.481545899617529</v>
+        <v>9.481545899617501</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.7984845780255</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>185.8073935452402</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1994387321036</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>82.4674129420756</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>6.668111244090968</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>46.6814300046298</v>
+        <v>410.4149465016521</v>
       </c>
       <c r="H38" t="n">
         <v>289.4177123989346</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.63953186650195</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6995444026096</v>
+        <v>107.4364021272702</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9546296267578</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>114.3308197417423</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.7984845780255</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>185.8073935452402</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>218.5776571846122</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1994387321036</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>56.03942500728541</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3760,7 +3760,7 @@
         <v>289.4177123989346</v>
       </c>
       <c r="I41" t="n">
-        <v>22.03932652310337</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>183.6538402525017</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>107.4364021272711</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>16.1371631634884</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>83.75894471097982</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>218.5776571846122</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1994387321036</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3994,7 +3994,7 @@
         <v>410.4149465016521</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>289.4177123989346</v>
       </c>
       <c r="I44" t="n">
         <v>22.03932652310337</v>
@@ -4033,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9546296267578</v>
+        <v>107.4364021272711</v>
       </c>
       <c r="V44" t="n">
-        <v>145.8994848994472</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>185.8073935452402</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>218.5776571846122</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1994387321036</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>123.6612065547769</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>23.26916136791343</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1979.06775675439</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794323</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794323</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2755.806928794323</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2365.667596818511</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4403,10 +4403,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4433,28 +4433,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>195.4511859077016</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>195.4511859077016</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>195.4511859077016</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>195.4511859077016</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>195.4511859077016</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>195.4511859077016</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596504</v>
@@ -4521,19 +4521,19 @@
         <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181845</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181845</v>
+        <v>377.0996507379413</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796265</v>
+        <v>1261.532988317206</v>
       </c>
       <c r="C5" t="n">
-        <v>552.8079389392149</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="D5" t="n">
-        <v>552.8079389392149</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E5" t="n">
-        <v>552.8079389392149</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>141.8220341496073</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4588,7 +4588,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
@@ -4643,49 +4643,49 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>409.70322035075</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>181.7136694527326</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.887005818185</v>
+        <v>181.7136694527326</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796252</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C8" t="n">
-        <v>921.7704558796252</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>921.7704558796252</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>921.7704558796252</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>510.7845510900176</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2791.455574937636</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2791.455574937636</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2438.686919667522</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2065.221161406442</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="9">
@@ -4859,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4901,31 +4901,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
         <v>1109.759191501176</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>517.4719255574712</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>517.4719255574712</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>699.1203903877109</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1698.509627919559</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="C11" t="n">
-        <v>1329.547110979147</v>
+        <v>1049.69844747624</v>
       </c>
       <c r="D11" t="n">
-        <v>1320.35562273557</v>
+        <v>691.4327488694898</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373257</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F11" t="n">
         <v>523.5814653477182</v>
@@ -5041,25 +5041,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810566</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5068,25 +5068,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180638</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y11" t="n">
-        <v>1698.509627919559</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.5121164321834</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="C13" t="n">
-        <v>66.5121164321834</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="D13" t="n">
-        <v>66.5121164321834</v>
+        <v>770.7703664058488</v>
       </c>
       <c r="E13" t="n">
-        <v>66.5121164321834</v>
+        <v>622.8572728234557</v>
       </c>
       <c r="F13" t="n">
-        <v>66.5121164321834</v>
+        <v>475.9673253255453</v>
       </c>
       <c r="G13" t="n">
-        <v>66.5121164321834</v>
+        <v>308.2644887002642</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>162.047301918122</v>
       </c>
       <c r="I13" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T13" t="n">
-        <v>899.7166415493873</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U13" t="n">
-        <v>610.6137746750309</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V13" t="n">
-        <v>355.929286469144</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W13" t="n">
-        <v>66.5121164321834</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X13" t="n">
-        <v>66.5121164321834</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.5121164321834</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1619.798686923957</v>
+        <v>1221.525483338121</v>
       </c>
       <c r="C14" t="n">
-        <v>1250.836169983545</v>
+        <v>852.5629663977095</v>
       </c>
       <c r="D14" t="n">
-        <v>892.5704713767946</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G14" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136265</v>
+        <v>3309.092432978983</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136265</v>
+        <v>3309.092432978983</v>
       </c>
       <c r="U14" t="n">
-        <v>3215.315153136265</v>
+        <v>3055.56195625282</v>
       </c>
       <c r="V14" t="n">
-        <v>2884.252265792694</v>
+        <v>2724.499068909249</v>
       </c>
       <c r="W14" t="n">
-        <v>2770.00361722497</v>
+        <v>2371.730413639134</v>
       </c>
       <c r="X14" t="n">
-        <v>2396.53785896389</v>
+        <v>1998.264655378055</v>
       </c>
       <c r="Y14" t="n">
-        <v>2006.398526988078</v>
+        <v>1608.125323402243</v>
       </c>
     </row>
     <row r="15">
@@ -5348,28 +5348,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>342.3669689068678</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C16" t="n">
-        <v>173.4307859789609</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D16" t="n">
-        <v>173.4307859789609</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E16" t="n">
-        <v>173.4307859789609</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F16" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G16" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K16" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U16" t="n">
-        <v>631.7841389438285</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="V16" t="n">
-        <v>631.7841389438285</v>
+        <v>444.4359021818237</v>
       </c>
       <c r="W16" t="n">
-        <v>342.3669689068678</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="X16" t="n">
-        <v>342.3669689068678</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="Y16" t="n">
-        <v>342.3669689068678</v>
+        <v>212.7293032143256</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1734.047335491681</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C17" t="n">
-        <v>1365.084818551269</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D17" t="n">
-        <v>1320.35562273557</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E17" t="n">
-        <v>934.5673701373257</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F17" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912096</v>
@@ -5521,46 +5521,46 @@
         <v>589.2106210810559</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3215.315153136265</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>2884.252265792694</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W17" t="n">
-        <v>2884.252265792694</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X17" t="n">
-        <v>2510.786507531614</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y17" t="n">
-        <v>2120.647175555803</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="18">
@@ -5591,16 +5591,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5609,7 +5609,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
         <v>2407.41198488674</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>216.6287558445191</v>
+        <v>326.7600776712411</v>
       </c>
       <c r="C19" t="n">
-        <v>216.6287558445191</v>
+        <v>157.8238947433342</v>
       </c>
       <c r="D19" t="n">
-        <v>66.5121164321834</v>
+        <v>157.8238947433342</v>
       </c>
       <c r="E19" t="n">
-        <v>66.5121164321834</v>
+        <v>157.8238947433342</v>
       </c>
       <c r="F19" t="n">
-        <v>66.5121164321834</v>
+        <v>157.8238947433342</v>
       </c>
       <c r="G19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181842</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181842</v>
+        <v>729.201121645011</v>
       </c>
       <c r="U19" t="n">
-        <v>631.7841389438278</v>
+        <v>729.201121645011</v>
       </c>
       <c r="V19" t="n">
-        <v>444.6183067425364</v>
+        <v>729.201121645011</v>
       </c>
       <c r="W19" t="n">
-        <v>444.6183067425364</v>
+        <v>729.201121645011</v>
       </c>
       <c r="X19" t="n">
-        <v>216.6287558445191</v>
+        <v>729.201121645011</v>
       </c>
       <c r="Y19" t="n">
-        <v>216.6287558445191</v>
+        <v>508.4085425014808</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1636.624422581789</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C20" t="n">
-        <v>1636.624422581789</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G20" t="n">
         <v>66.51211643218342</v>
@@ -5752,19 +5752,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>2678.274518176917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W20" t="n">
-        <v>2325.505862906803</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X20" t="n">
-        <v>2325.505862906803</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y20" t="n">
-        <v>2023.224262645911</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="21">
@@ -5940,16 +5940,16 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T22" t="n">
-        <v>699.1203903877106</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U22" t="n">
-        <v>410.0175235133541</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V22" t="n">
-        <v>410.0175235133541</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W22" t="n">
-        <v>120.6003534763935</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X22" t="n">
         <v>66.51211643218342</v>
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2017.433561660081</v>
+        <v>2039.695507643014</v>
       </c>
       <c r="C23" t="n">
-        <v>1648.471044719669</v>
+        <v>1670.732990702602</v>
       </c>
       <c r="D23" t="n">
-        <v>1290.205346112919</v>
+        <v>1312.467292095851</v>
       </c>
       <c r="E23" t="n">
-        <v>904.4170935146744</v>
+        <v>926.6790394976072</v>
       </c>
       <c r="F23" t="n">
-        <v>493.4311887250669</v>
+        <v>515.6931347079995</v>
       </c>
       <c r="G23" t="n">
-        <v>78.87063670319608</v>
+        <v>101.1325826861288</v>
       </c>
       <c r="H23" t="n">
-        <v>78.87063670319608</v>
+        <v>101.1325826861288</v>
       </c>
       <c r="I23" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319606</v>
       </c>
       <c r="J23" t="n">
-        <v>310.3318922270714</v>
+        <v>310.3318922270716</v>
       </c>
       <c r="K23" t="n">
-        <v>707.9708323625623</v>
+        <v>707.9708323625629</v>
       </c>
       <c r="L23" t="n">
         <v>1238.178861098888</v>
@@ -6004,37 +6004,37 @@
         <v>2496.107320014712</v>
       </c>
       <c r="O23" t="n">
-        <v>3083.612510848993</v>
+        <v>3083.612510848992</v>
       </c>
       <c r="P23" t="n">
-        <v>3550.533597954119</v>
+        <v>3550.533597954118</v>
       </c>
       <c r="Q23" t="n">
-        <v>3852.999142367602</v>
+        <v>3852.999142367601</v>
       </c>
       <c r="R23" t="n">
-        <v>3943.531835159804</v>
+        <v>3943.531835159803</v>
       </c>
       <c r="S23" t="n">
-        <v>3844.90604539566</v>
+        <v>3943.531835159803</v>
       </c>
       <c r="T23" t="n">
-        <v>3844.90604539566</v>
+        <v>3943.531835159803</v>
       </c>
       <c r="U23" t="n">
-        <v>3844.90604539566</v>
+        <v>3873.731980557712</v>
       </c>
       <c r="V23" t="n">
-        <v>3513.84315805209</v>
+        <v>3542.669093214141</v>
       </c>
       <c r="W23" t="n">
-        <v>3167.638491961094</v>
+        <v>3189.900437944027</v>
       </c>
       <c r="X23" t="n">
-        <v>2794.172733700014</v>
+        <v>2816.434679682947</v>
       </c>
       <c r="Y23" t="n">
-        <v>2404.033401724203</v>
+        <v>2426.295347707136</v>
       </c>
     </row>
     <row r="24">
@@ -6062,28 +6062,28 @@
         <v>176.3046527720956</v>
       </c>
       <c r="H24" t="n">
-        <v>88.44795579371882</v>
+        <v>88.44795579371879</v>
       </c>
       <c r="I24" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319606</v>
       </c>
       <c r="J24" t="n">
         <v>197.9095278678809</v>
       </c>
       <c r="K24" t="n">
-        <v>479.5207778288761</v>
+        <v>238.5038221180941</v>
       </c>
       <c r="L24" t="n">
-        <v>904.5043975433664</v>
+        <v>663.4874418325844</v>
       </c>
       <c r="M24" t="n">
-        <v>1419.797104740097</v>
+        <v>1178.780149029315</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.136721510769</v>
+        <v>1722.119765799987</v>
       </c>
       <c r="O24" t="n">
-        <v>2437.966525646949</v>
+        <v>2196.949569936167</v>
       </c>
       <c r="P24" t="n">
         <v>2558.709283247168</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.17080151480053</v>
+        <v>243.6544399475671</v>
       </c>
       <c r="C25" t="n">
-        <v>95.17080151480053</v>
+        <v>243.6544399475671</v>
       </c>
       <c r="D25" t="n">
-        <v>95.17080151480053</v>
+        <v>93.53780053523141</v>
       </c>
       <c r="E25" t="n">
-        <v>95.17080151480053</v>
+        <v>78.87063670319606</v>
       </c>
       <c r="F25" t="n">
-        <v>95.17080151480053</v>
+        <v>78.87063670319606</v>
       </c>
       <c r="G25" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319606</v>
       </c>
       <c r="H25" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319606</v>
       </c>
       <c r="I25" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319606</v>
       </c>
       <c r="J25" t="n">
-        <v>106.6044566450581</v>
+        <v>106.604456645058</v>
       </c>
       <c r="K25" t="n">
         <v>231.0620807016599</v>
@@ -6171,28 +6171,28 @@
         <v>1156.352352809305</v>
       </c>
       <c r="R25" t="n">
-        <v>1156.352352809305</v>
+        <v>1076.846440344055</v>
       </c>
       <c r="S25" t="n">
-        <v>1156.352352809305</v>
+        <v>1076.846440344055</v>
       </c>
       <c r="T25" t="n">
-        <v>1156.352352809305</v>
+        <v>1076.846440344055</v>
       </c>
       <c r="U25" t="n">
-        <v>867.2620106556653</v>
+        <v>787.7560981904146</v>
       </c>
       <c r="V25" t="n">
-        <v>612.5775224497785</v>
+        <v>533.0716099845278</v>
       </c>
       <c r="W25" t="n">
-        <v>323.1603524128179</v>
+        <v>243.6544399475671</v>
       </c>
       <c r="X25" t="n">
-        <v>95.17080151480053</v>
+        <v>243.6544399475671</v>
       </c>
       <c r="Y25" t="n">
-        <v>95.17080151480053</v>
+        <v>243.6544399475671</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1921.050726488693</v>
+        <v>1757.380047605448</v>
       </c>
       <c r="C26" t="n">
-        <v>1552.088209548282</v>
+        <v>1670.732990702602</v>
       </c>
       <c r="D26" t="n">
-        <v>1193.822510941531</v>
+        <v>1312.467292095851</v>
       </c>
       <c r="E26" t="n">
-        <v>808.0342583432871</v>
+        <v>926.6790394976072</v>
       </c>
       <c r="F26" t="n">
-        <v>808.0342583432871</v>
+        <v>515.6931347079995</v>
       </c>
       <c r="G26" t="n">
-        <v>393.4737063214163</v>
+        <v>101.1325826861288</v>
       </c>
       <c r="H26" t="n">
         <v>101.1325826861288</v>
       </c>
       <c r="I26" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319606</v>
       </c>
       <c r="J26" t="n">
-        <v>310.3318922270719</v>
+        <v>310.3318922270716</v>
       </c>
       <c r="K26" t="n">
-        <v>707.9708323625632</v>
+        <v>707.9708323625629</v>
       </c>
       <c r="L26" t="n">
-        <v>1238.17886109889</v>
+        <v>1238.178861098888</v>
       </c>
       <c r="M26" t="n">
-        <v>1859.80689066217</v>
+        <v>1859.806890662168</v>
       </c>
       <c r="N26" t="n">
-        <v>2496.107320014714</v>
+        <v>2496.107320014712</v>
       </c>
       <c r="O26" t="n">
-        <v>3083.612510848994</v>
+        <v>3083.612510848992</v>
       </c>
       <c r="P26" t="n">
-        <v>3550.533597954119</v>
+        <v>3550.533597954118</v>
       </c>
       <c r="Q26" t="n">
-        <v>3852.999142367602</v>
+        <v>3852.999142367601</v>
       </c>
       <c r="R26" t="n">
-        <v>3943.531835159804</v>
+        <v>3943.531835159803</v>
       </c>
       <c r="S26" t="n">
-        <v>3844.90604539566</v>
+        <v>3844.906045395659</v>
       </c>
       <c r="T26" t="n">
-        <v>3641.169131857671</v>
+        <v>3844.906045395659</v>
       </c>
       <c r="U26" t="n">
-        <v>3387.679606982158</v>
+        <v>3591.416520520147</v>
       </c>
       <c r="V26" t="n">
-        <v>3071.255656789707</v>
+        <v>3260.353633176576</v>
       </c>
       <c r="W26" t="n">
-        <v>3071.255656789707</v>
+        <v>2907.584977906462</v>
       </c>
       <c r="X26" t="n">
-        <v>2697.789898528627</v>
+        <v>2534.119219645382</v>
       </c>
       <c r="Y26" t="n">
-        <v>2307.650566552815</v>
+        <v>2143.97988766957</v>
       </c>
     </row>
     <row r="27">
@@ -6299,28 +6299,28 @@
         <v>176.3046527720956</v>
       </c>
       <c r="H27" t="n">
-        <v>88.44795579371882</v>
+        <v>88.44795579371879</v>
       </c>
       <c r="I27" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319606</v>
       </c>
       <c r="J27" t="n">
         <v>197.9095278678809</v>
       </c>
       <c r="K27" t="n">
-        <v>479.5207778288761</v>
+        <v>238.5038221180941</v>
       </c>
       <c r="L27" t="n">
-        <v>904.5043975433664</v>
+        <v>663.4874418325844</v>
       </c>
       <c r="M27" t="n">
-        <v>1419.797104740097</v>
+        <v>1178.780149029315</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.136721510769</v>
+        <v>1722.119765799987</v>
       </c>
       <c r="O27" t="n">
-        <v>2437.966525646949</v>
+        <v>2196.949569936167</v>
       </c>
       <c r="P27" t="n">
         <v>2558.709283247168</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319606</v>
       </c>
       <c r="C28" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319606</v>
       </c>
       <c r="D28" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319606</v>
       </c>
       <c r="E28" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319606</v>
       </c>
       <c r="F28" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319606</v>
       </c>
       <c r="G28" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319606</v>
       </c>
       <c r="H28" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319606</v>
       </c>
       <c r="I28" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319606</v>
       </c>
       <c r="J28" t="n">
-        <v>106.6044566450581</v>
+        <v>106.604456645058</v>
       </c>
       <c r="K28" t="n">
         <v>231.0620807016599</v>
@@ -6414,22 +6414,22 @@
         <v>1156.352352809305</v>
       </c>
       <c r="T28" t="n">
-        <v>1156.352352809305</v>
+        <v>935.5668405016163</v>
       </c>
       <c r="U28" t="n">
-        <v>867.2620106556653</v>
+        <v>646.4764983479763</v>
       </c>
       <c r="V28" t="n">
-        <v>612.5775224497785</v>
+        <v>391.7920101420895</v>
       </c>
       <c r="W28" t="n">
-        <v>323.1603524128179</v>
+        <v>102.3748401051288</v>
       </c>
       <c r="X28" t="n">
-        <v>95.17080151480053</v>
+        <v>102.3748401051288</v>
       </c>
       <c r="Y28" t="n">
-        <v>78.87063670319608</v>
+        <v>78.87063670319606</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2109.495362245104</v>
+        <v>2010.869572480962</v>
       </c>
       <c r="C29" t="n">
-        <v>1740.532845304693</v>
+        <v>1641.90705554055</v>
       </c>
       <c r="D29" t="n">
-        <v>1382.267146697942</v>
+        <v>1283.6413569338</v>
       </c>
       <c r="E29" t="n">
-        <v>996.478894099698</v>
+        <v>926.6790394976072</v>
       </c>
       <c r="F29" t="n">
-        <v>585.4929893100905</v>
+        <v>515.6931347079997</v>
       </c>
       <c r="G29" t="n">
-        <v>393.4737063214162</v>
+        <v>101.1325826861288</v>
       </c>
       <c r="H29" t="n">
         <v>101.1325826861288</v>
       </c>
       <c r="I29" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319608</v>
       </c>
       <c r="J29" t="n">
-        <v>310.3318922270716</v>
+        <v>310.3318922270714</v>
       </c>
       <c r="K29" t="n">
-        <v>707.9708323625629</v>
+        <v>707.9708323625637</v>
       </c>
       <c r="L29" t="n">
-        <v>1238.178861098888</v>
+        <v>1238.178861098889</v>
       </c>
       <c r="M29" t="n">
-        <v>1859.806890662168</v>
+        <v>1859.806890662169</v>
       </c>
       <c r="N29" t="n">
-        <v>2496.107320014712</v>
+        <v>2496.107320014713</v>
       </c>
       <c r="O29" t="n">
-        <v>3083.612510848992</v>
+        <v>3083.612510848993</v>
       </c>
       <c r="P29" t="n">
-        <v>3550.533597954118</v>
+        <v>3550.533597954119</v>
       </c>
       <c r="Q29" t="n">
-        <v>3852.999142367601</v>
+        <v>3852.999142367602</v>
       </c>
       <c r="R29" t="n">
-        <v>3943.531835159803</v>
+        <v>3943.531835159804</v>
       </c>
       <c r="S29" t="n">
-        <v>3943.531835159803</v>
+        <v>3844.90604539566</v>
       </c>
       <c r="T29" t="n">
-        <v>3943.531835159803</v>
+        <v>3844.90604539566</v>
       </c>
       <c r="U29" t="n">
-        <v>3943.531835159803</v>
+        <v>3844.90604539566</v>
       </c>
       <c r="V29" t="n">
-        <v>3612.468947816232</v>
+        <v>3513.84315805209</v>
       </c>
       <c r="W29" t="n">
-        <v>3259.700292546118</v>
+        <v>3161.074502781975</v>
       </c>
       <c r="X29" t="n">
-        <v>2886.234534285038</v>
+        <v>2787.608744520895</v>
       </c>
       <c r="Y29" t="n">
-        <v>2496.095202309226</v>
+        <v>2397.469412545084</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>176.3046527720956</v>
       </c>
       <c r="H30" t="n">
-        <v>88.44795579371879</v>
+        <v>88.44795579371882</v>
       </c>
       <c r="I30" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319608</v>
       </c>
       <c r="J30" t="n">
         <v>197.9095278678809</v>
@@ -6557,7 +6557,7 @@
         <v>1963.136721510769</v>
       </c>
       <c r="O30" t="n">
-        <v>2437.966525646949</v>
+        <v>2196.949569936167</v>
       </c>
       <c r="P30" t="n">
         <v>2558.709283247168</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>323.1603524128179</v>
+        <v>415.2800363765833</v>
       </c>
       <c r="C31" t="n">
-        <v>323.1603524128179</v>
+        <v>246.3438534486764</v>
       </c>
       <c r="D31" t="n">
-        <v>323.1603524128179</v>
+        <v>246.3438534486764</v>
       </c>
       <c r="E31" t="n">
-        <v>323.1603524128179</v>
+        <v>246.3438534486764</v>
       </c>
       <c r="F31" t="n">
         <v>246.3438534486764</v>
       </c>
       <c r="G31" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319608</v>
       </c>
       <c r="H31" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319608</v>
       </c>
       <c r="I31" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319608</v>
       </c>
       <c r="J31" t="n">
-        <v>106.604456645058</v>
+        <v>106.6044566450581</v>
       </c>
       <c r="K31" t="n">
         <v>231.0620807016599</v>
@@ -6654,19 +6654,19 @@
         <v>1156.352352809305</v>
       </c>
       <c r="U31" t="n">
-        <v>867.2620106556653</v>
+        <v>1045.710631248371</v>
       </c>
       <c r="V31" t="n">
-        <v>612.5775224497785</v>
+        <v>1045.710631248371</v>
       </c>
       <c r="W31" t="n">
-        <v>323.1603524128179</v>
+        <v>1045.710631248371</v>
       </c>
       <c r="X31" t="n">
-        <v>323.1603524128179</v>
+        <v>817.7210803503532</v>
       </c>
       <c r="Y31" t="n">
-        <v>323.1603524128179</v>
+        <v>596.9285012068231</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1807.132658942972</v>
+        <v>2332.036631278301</v>
       </c>
       <c r="C32" t="n">
-        <v>1438.17014200256</v>
+        <v>1963.074114337889</v>
       </c>
       <c r="D32" t="n">
-        <v>1079.904443395809</v>
+        <v>1604.808415731139</v>
       </c>
       <c r="E32" t="n">
-        <v>926.6790394976072</v>
+        <v>1219.020163132895</v>
       </c>
       <c r="F32" t="n">
-        <v>515.6931347079995</v>
+        <v>808.0342583432871</v>
       </c>
       <c r="G32" t="n">
-        <v>101.1325826861288</v>
+        <v>393.4737063214163</v>
       </c>
       <c r="H32" t="n">
         <v>101.1325826861288</v>
       </c>
       <c r="I32" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319608</v>
       </c>
       <c r="J32" t="n">
-        <v>310.3318922270716</v>
+        <v>310.3318922270714</v>
       </c>
       <c r="K32" t="n">
-        <v>707.9708323625629</v>
+        <v>707.9708323625628</v>
       </c>
       <c r="L32" t="n">
         <v>1238.178861098888</v>
@@ -6712,40 +6712,40 @@
         <v>1859.806890662169</v>
       </c>
       <c r="N32" t="n">
-        <v>2496.107320014712</v>
+        <v>2496.107320014713</v>
       </c>
       <c r="O32" t="n">
-        <v>3083.612510848992</v>
+        <v>3083.612510848994</v>
       </c>
       <c r="P32" t="n">
-        <v>3550.533597954118</v>
+        <v>3550.53359795412</v>
       </c>
       <c r="Q32" t="n">
-        <v>3852.999142367601</v>
+        <v>3852.999142367602</v>
       </c>
       <c r="R32" t="n">
-        <v>3943.531835159803</v>
+        <v>3943.531835159804</v>
       </c>
       <c r="S32" t="n">
-        <v>3844.906045395659</v>
+        <v>3943.531835159804</v>
       </c>
       <c r="T32" t="n">
-        <v>3641.16913185767</v>
+        <v>3835.010216849429</v>
       </c>
       <c r="U32" t="n">
-        <v>3641.16913185767</v>
+        <v>3835.010216849429</v>
       </c>
       <c r="V32" t="n">
-        <v>3310.106244514099</v>
+        <v>3835.010216849429</v>
       </c>
       <c r="W32" t="n">
-        <v>2957.337589243985</v>
+        <v>3482.241561579315</v>
       </c>
       <c r="X32" t="n">
-        <v>2583.871830982905</v>
+        <v>3108.775803318235</v>
       </c>
       <c r="Y32" t="n">
-        <v>2193.732499007093</v>
+        <v>2718.636471342423</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>176.3046527720956</v>
       </c>
       <c r="H33" t="n">
-        <v>88.44795579371879</v>
+        <v>88.44795579371882</v>
       </c>
       <c r="I33" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319608</v>
       </c>
       <c r="J33" t="n">
         <v>197.9095278678809</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.17080151480053</v>
+        <v>543.3504403589225</v>
       </c>
       <c r="C34" t="n">
-        <v>95.17080151480053</v>
+        <v>543.3504403589225</v>
       </c>
       <c r="D34" t="n">
-        <v>95.17080151480053</v>
+        <v>393.2338009465868</v>
       </c>
       <c r="E34" t="n">
-        <v>95.17080151480053</v>
+        <v>393.2338009465868</v>
       </c>
       <c r="F34" t="n">
-        <v>95.17080151480053</v>
+        <v>246.3438534486764</v>
       </c>
       <c r="G34" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319608</v>
       </c>
       <c r="H34" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319608</v>
       </c>
       <c r="I34" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319608</v>
       </c>
       <c r="J34" t="n">
-        <v>106.604456645058</v>
+        <v>106.6044566450581</v>
       </c>
       <c r="K34" t="n">
         <v>231.0620807016599</v>
@@ -6891,19 +6891,19 @@
         <v>1156.352352809305</v>
       </c>
       <c r="U34" t="n">
-        <v>867.2620106556653</v>
+        <v>1156.352352809305</v>
       </c>
       <c r="V34" t="n">
-        <v>612.5775224497785</v>
+        <v>1156.352352809305</v>
       </c>
       <c r="W34" t="n">
-        <v>323.1603524128179</v>
+        <v>1156.352352809305</v>
       </c>
       <c r="X34" t="n">
-        <v>95.17080151480053</v>
+        <v>928.362801911288</v>
       </c>
       <c r="Y34" t="n">
-        <v>95.17080151480053</v>
+        <v>724.9989051891622</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1757.380047605448</v>
+        <v>2039.695507643014</v>
       </c>
       <c r="C35" t="n">
-        <v>1388.417530665037</v>
+        <v>1670.732990702602</v>
       </c>
       <c r="D35" t="n">
-        <v>1030.151832058286</v>
+        <v>1312.467292095851</v>
       </c>
       <c r="E35" t="n">
-        <v>1030.151832058286</v>
+        <v>926.6790394976072</v>
       </c>
       <c r="F35" t="n">
-        <v>619.1659272686786</v>
+        <v>515.6931347079997</v>
       </c>
       <c r="G35" t="n">
-        <v>393.4737063214163</v>
+        <v>101.1325826861288</v>
       </c>
       <c r="H35" t="n">
         <v>101.1325826861288</v>
       </c>
       <c r="I35" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319608</v>
       </c>
       <c r="J35" t="n">
-        <v>310.331892227071</v>
+        <v>310.3318922270719</v>
       </c>
       <c r="K35" t="n">
-        <v>707.9708323625619</v>
+        <v>707.9708323625632</v>
       </c>
       <c r="L35" t="n">
-        <v>1238.178861098888</v>
+        <v>1238.17886109889</v>
       </c>
       <c r="M35" t="n">
-        <v>1859.806890662168</v>
+        <v>1859.80689066217</v>
       </c>
       <c r="N35" t="n">
-        <v>2496.107320014711</v>
+        <v>2496.107320014714</v>
       </c>
       <c r="O35" t="n">
-        <v>3083.612510848991</v>
+        <v>3083.612510848994</v>
       </c>
       <c r="P35" t="n">
-        <v>3550.533597954117</v>
+        <v>3550.533597954119</v>
       </c>
       <c r="Q35" t="n">
-        <v>3852.999142367601</v>
+        <v>3852.999142367602</v>
       </c>
       <c r="R35" t="n">
-        <v>3943.531835159803</v>
+        <v>3943.531835159804</v>
       </c>
       <c r="S35" t="n">
-        <v>3844.906045395659</v>
+        <v>3943.531835159804</v>
       </c>
       <c r="T35" t="n">
-        <v>3844.906045395659</v>
+        <v>3943.531835159804</v>
       </c>
       <c r="U35" t="n">
-        <v>3591.416520520147</v>
+        <v>3690.042310284291</v>
       </c>
       <c r="V35" t="n">
-        <v>3260.353633176576</v>
+        <v>3358.97942294072</v>
       </c>
       <c r="W35" t="n">
-        <v>2907.584977906462</v>
+        <v>3189.900437944027</v>
       </c>
       <c r="X35" t="n">
-        <v>2534.119219645382</v>
+        <v>2816.434679682947</v>
       </c>
       <c r="Y35" t="n">
-        <v>2143.97988766957</v>
+        <v>2426.295347707136</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>88.44795579371882</v>
       </c>
       <c r="I36" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319608</v>
       </c>
       <c r="J36" t="n">
-        <v>197.9095278678808</v>
+        <v>197.9095278678809</v>
       </c>
       <c r="K36" t="n">
-        <v>479.520777828876</v>
+        <v>479.5207778288761</v>
       </c>
       <c r="L36" t="n">
-        <v>904.5043975433662</v>
+        <v>904.5043975433664</v>
       </c>
       <c r="M36" t="n">
         <v>1419.797104740097</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.136721510768</v>
+        <v>1963.136721510769</v>
       </c>
       <c r="O36" t="n">
-        <v>2437.966525646948</v>
+        <v>2437.966525646949</v>
       </c>
       <c r="P36" t="n">
         <v>2558.709283247168</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>78.87063670319606</v>
+        <v>860.1997168692225</v>
       </c>
       <c r="C37" t="n">
-        <v>78.87063670319606</v>
+        <v>691.2635339413156</v>
       </c>
       <c r="D37" t="n">
-        <v>78.87063670319606</v>
+        <v>541.1468945289798</v>
       </c>
       <c r="E37" t="n">
-        <v>78.87063670319606</v>
+        <v>393.2338009465868</v>
       </c>
       <c r="F37" t="n">
-        <v>78.87063670319606</v>
+        <v>246.3438534486764</v>
       </c>
       <c r="G37" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319608</v>
       </c>
       <c r="H37" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319608</v>
       </c>
       <c r="I37" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319608</v>
       </c>
       <c r="J37" t="n">
-        <v>106.604456645058</v>
+        <v>106.6044566450581</v>
       </c>
       <c r="K37" t="n">
-        <v>231.0620807016598</v>
+        <v>231.0620807016599</v>
       </c>
       <c r="L37" t="n">
-        <v>420.2307879360815</v>
+        <v>420.2307879360816</v>
       </c>
       <c r="M37" t="n">
-        <v>622.9409493190465</v>
+        <v>622.9409493190467</v>
       </c>
       <c r="N37" t="n">
-        <v>828.6886420497611</v>
+        <v>828.6886420497615</v>
       </c>
       <c r="O37" t="n">
-        <v>998.4168485980217</v>
+        <v>998.4168485980222</v>
       </c>
       <c r="P37" t="n">
-        <v>1124.58667961932</v>
+        <v>1124.586679619321</v>
       </c>
       <c r="Q37" t="n">
         <v>1156.352352809305</v>
@@ -7122,25 +7122,25 @@
         <v>1156.352352809305</v>
       </c>
       <c r="S37" t="n">
-        <v>968.6681169050216</v>
+        <v>1156.352352809305</v>
       </c>
       <c r="T37" t="n">
-        <v>968.6681169050216</v>
+        <v>1156.352352809305</v>
       </c>
       <c r="U37" t="n">
-        <v>679.5777747513816</v>
+        <v>1156.352352809305</v>
       </c>
       <c r="V37" t="n">
-        <v>596.277357638174</v>
+        <v>1156.352352809305</v>
       </c>
       <c r="W37" t="n">
-        <v>306.8601876012134</v>
+        <v>866.9351827723447</v>
       </c>
       <c r="X37" t="n">
-        <v>78.87063670319606</v>
+        <v>860.1997168692225</v>
       </c>
       <c r="Y37" t="n">
-        <v>78.87063670319606</v>
+        <v>860.1997168692225</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1553.643134067459</v>
+        <v>2332.036631278301</v>
       </c>
       <c r="C38" t="n">
-        <v>1184.680617127047</v>
+        <v>1963.074114337889</v>
       </c>
       <c r="D38" t="n">
-        <v>826.4149185202966</v>
+        <v>1604.808415731139</v>
       </c>
       <c r="E38" t="n">
-        <v>440.6266659220524</v>
+        <v>1219.020163132895</v>
       </c>
       <c r="F38" t="n">
-        <v>440.6266659220524</v>
+        <v>808.0342583432871</v>
       </c>
       <c r="G38" t="n">
         <v>393.4737063214162</v>
@@ -7183,7 +7183,7 @@
         <v>1238.178861098888</v>
       </c>
       <c r="M38" t="n">
-        <v>1859.806890662168</v>
+        <v>1859.806890662169</v>
       </c>
       <c r="N38" t="n">
         <v>2496.107320014712</v>
@@ -7201,25 +7201,25 @@
         <v>3943.531835159803</v>
       </c>
       <c r="S38" t="n">
-        <v>3844.906045395659</v>
+        <v>3943.531835159803</v>
       </c>
       <c r="T38" t="n">
-        <v>3641.16913185767</v>
+        <v>3835.010216849429</v>
       </c>
       <c r="U38" t="n">
-        <v>3387.679606982157</v>
+        <v>3835.010216849429</v>
       </c>
       <c r="V38" t="n">
-        <v>3056.616719638586</v>
+        <v>3835.010216849429</v>
       </c>
       <c r="W38" t="n">
-        <v>2703.848064368472</v>
+        <v>3482.241561579315</v>
       </c>
       <c r="X38" t="n">
-        <v>2330.382306107392</v>
+        <v>3108.775803318235</v>
       </c>
       <c r="Y38" t="n">
-        <v>1940.24297413158</v>
+        <v>2718.636471342423</v>
       </c>
     </row>
     <row r="39">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>78.87063670319606</v>
+        <v>680.8823522957294</v>
       </c>
       <c r="C40" t="n">
-        <v>78.87063670319606</v>
+        <v>511.9461693678226</v>
       </c>
       <c r="D40" t="n">
-        <v>78.87063670319606</v>
+        <v>361.8295299554868</v>
       </c>
       <c r="E40" t="n">
-        <v>78.87063670319606</v>
+        <v>246.3438534486764</v>
       </c>
       <c r="F40" t="n">
-        <v>78.87063670319606</v>
+        <v>246.3438534486764</v>
       </c>
       <c r="G40" t="n">
         <v>78.87063670319606</v>
@@ -7359,25 +7359,25 @@
         <v>1156.352352809305</v>
       </c>
       <c r="S40" t="n">
-        <v>968.6681169050223</v>
+        <v>1156.352352809305</v>
       </c>
       <c r="T40" t="n">
-        <v>968.6681169050223</v>
+        <v>935.5668405016163</v>
       </c>
       <c r="U40" t="n">
-        <v>679.5777747513823</v>
+        <v>935.5668405016163</v>
       </c>
       <c r="V40" t="n">
-        <v>424.8932865454955</v>
+        <v>680.8823522957294</v>
       </c>
       <c r="W40" t="n">
-        <v>135.4761165085349</v>
+        <v>680.8823522957294</v>
       </c>
       <c r="X40" t="n">
-        <v>78.87063670319606</v>
+        <v>680.8823522957294</v>
       </c>
       <c r="Y40" t="n">
-        <v>78.87063670319606</v>
+        <v>680.8823522957294</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2332.036631278301</v>
+        <v>1923.986432697124</v>
       </c>
       <c r="C41" t="n">
-        <v>1963.074114337889</v>
+        <v>1555.023915756712</v>
       </c>
       <c r="D41" t="n">
-        <v>1604.808415731139</v>
+        <v>1196.758217149962</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.020163132895</v>
+        <v>1196.758217149962</v>
       </c>
       <c r="F41" t="n">
-        <v>808.0342583432871</v>
+        <v>785.7723123603544</v>
       </c>
       <c r="G41" t="n">
-        <v>393.4737063214163</v>
+        <v>371.2117603384836</v>
       </c>
       <c r="H41" t="n">
-        <v>101.1325826861288</v>
+        <v>78.87063670319608</v>
       </c>
       <c r="I41" t="n">
         <v>78.87063670319608</v>
@@ -7414,16 +7414,16 @@
         <v>310.3318922270714</v>
       </c>
       <c r="K41" t="n">
-        <v>707.9708323625628</v>
+        <v>707.9708323625623</v>
       </c>
       <c r="L41" t="n">
-        <v>1238.178861098889</v>
+        <v>1238.178861098888</v>
       </c>
       <c r="M41" t="n">
-        <v>1859.80689066217</v>
+        <v>1859.806890662168</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.107320014713</v>
+        <v>2496.107320014712</v>
       </c>
       <c r="O41" t="n">
         <v>3083.612510848993</v>
@@ -7441,22 +7441,22 @@
         <v>3943.531835159804</v>
       </c>
       <c r="T41" t="n">
-        <v>3943.531835159804</v>
+        <v>3758.022905611822</v>
       </c>
       <c r="U41" t="n">
-        <v>3943.531835159804</v>
+        <v>3758.022905611822</v>
       </c>
       <c r="V41" t="n">
-        <v>3835.010216849429</v>
+        <v>3426.960018268252</v>
       </c>
       <c r="W41" t="n">
-        <v>3482.241561579315</v>
+        <v>3074.191362998137</v>
       </c>
       <c r="X41" t="n">
-        <v>3108.775803318235</v>
+        <v>2700.725604737057</v>
       </c>
       <c r="Y41" t="n">
-        <v>2718.636471342423</v>
+        <v>2310.586272761246</v>
       </c>
     </row>
     <row r="42">
@@ -7596,25 +7596,25 @@
         <v>1156.352352809305</v>
       </c>
       <c r="S43" t="n">
-        <v>1071.74735815175</v>
+        <v>1156.352352809305</v>
       </c>
       <c r="T43" t="n">
-        <v>850.9618458440608</v>
+        <v>1156.352352809305</v>
       </c>
       <c r="U43" t="n">
-        <v>850.9618458440608</v>
+        <v>867.2620106556653</v>
       </c>
       <c r="V43" t="n">
-        <v>596.277357638174</v>
+        <v>612.5775224497785</v>
       </c>
       <c r="W43" t="n">
-        <v>306.8601876012134</v>
+        <v>323.1603524128179</v>
       </c>
       <c r="X43" t="n">
-        <v>78.87063670319608</v>
+        <v>95.17080151480053</v>
       </c>
       <c r="Y43" t="n">
-        <v>78.87063670319608</v>
+        <v>95.17080151480053</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2039.695507643014</v>
+        <v>2332.036631278301</v>
       </c>
       <c r="C44" t="n">
-        <v>1670.732990702602</v>
+        <v>1963.074114337889</v>
       </c>
       <c r="D44" t="n">
-        <v>1312.467292095851</v>
+        <v>1604.808415731139</v>
       </c>
       <c r="E44" t="n">
-        <v>926.6790394976072</v>
+        <v>1219.020163132895</v>
       </c>
       <c r="F44" t="n">
-        <v>515.6931347079995</v>
+        <v>808.0342583432871</v>
       </c>
       <c r="G44" t="n">
-        <v>101.1325826861288</v>
+        <v>393.4737063214163</v>
       </c>
       <c r="H44" t="n">
         <v>101.1325826861288</v>
       </c>
       <c r="I44" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319608</v>
       </c>
       <c r="J44" t="n">
-        <v>310.3318922270716</v>
+        <v>310.3318922270719</v>
       </c>
       <c r="K44" t="n">
-        <v>707.9708323625629</v>
+        <v>707.9708323625637</v>
       </c>
       <c r="L44" t="n">
-        <v>1238.178861098888</v>
+        <v>1238.178861098889</v>
       </c>
       <c r="M44" t="n">
-        <v>1859.806890662168</v>
+        <v>1859.80689066217</v>
       </c>
       <c r="N44" t="n">
-        <v>2496.107320014712</v>
+        <v>2496.107320014713</v>
       </c>
       <c r="O44" t="n">
-        <v>3083.612510848992</v>
+        <v>3083.612510848993</v>
       </c>
       <c r="P44" t="n">
-        <v>3550.533597954118</v>
+        <v>3550.533597954119</v>
       </c>
       <c r="Q44" t="n">
-        <v>3852.999142367601</v>
+        <v>3852.999142367602</v>
       </c>
       <c r="R44" t="n">
-        <v>3943.531835159803</v>
+        <v>3943.531835159804</v>
       </c>
       <c r="S44" t="n">
-        <v>3943.531835159803</v>
+        <v>3943.531835159804</v>
       </c>
       <c r="T44" t="n">
-        <v>3943.531835159803</v>
+        <v>3943.531835159804</v>
       </c>
       <c r="U44" t="n">
-        <v>3690.04231028429</v>
+        <v>3835.010216849429</v>
       </c>
       <c r="V44" t="n">
-        <v>3542.669093214141</v>
+        <v>3835.010216849429</v>
       </c>
       <c r="W44" t="n">
-        <v>3189.900437944027</v>
+        <v>3482.241561579315</v>
       </c>
       <c r="X44" t="n">
-        <v>2816.434679682947</v>
+        <v>3108.775803318235</v>
       </c>
       <c r="Y44" t="n">
-        <v>2426.295347707136</v>
+        <v>2718.636471342423</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>176.3046527720956</v>
       </c>
       <c r="H45" t="n">
-        <v>88.44795579371879</v>
+        <v>88.44795579371882</v>
       </c>
       <c r="I45" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319608</v>
       </c>
       <c r="J45" t="n">
         <v>197.9095278678809</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319608</v>
       </c>
       <c r="C46" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319608</v>
       </c>
       <c r="D46" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319608</v>
       </c>
       <c r="E46" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319608</v>
       </c>
       <c r="F46" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319608</v>
       </c>
       <c r="G46" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319608</v>
       </c>
       <c r="H46" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319608</v>
       </c>
       <c r="I46" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319608</v>
       </c>
       <c r="J46" t="n">
-        <v>106.604456645058</v>
+        <v>106.6044566450581</v>
       </c>
       <c r="K46" t="n">
         <v>231.0620807016599</v>
@@ -7833,25 +7833,25 @@
         <v>1156.352352809305</v>
       </c>
       <c r="S46" t="n">
-        <v>968.6681169050223</v>
+        <v>1156.352352809305</v>
       </c>
       <c r="T46" t="n">
-        <v>747.8826045973333</v>
+        <v>935.5668405016163</v>
       </c>
       <c r="U46" t="n">
-        <v>747.8826045973333</v>
+        <v>646.4764983479763</v>
       </c>
       <c r="V46" t="n">
-        <v>493.1981163914464</v>
+        <v>391.7920101420895</v>
       </c>
       <c r="W46" t="n">
-        <v>203.7809463544858</v>
+        <v>102.3748401051288</v>
       </c>
       <c r="X46" t="n">
-        <v>78.87063670319606</v>
+        <v>102.3748401051288</v>
       </c>
       <c r="Y46" t="n">
-        <v>78.87063670319606</v>
+        <v>78.87063670319608</v>
       </c>
     </row>
   </sheetData>
@@ -22549,16 +22549,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>265.6735555317396</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22707,25 +22707,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>17.10533613355784</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22767,13 +22767,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>336.3649071132049</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22801,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>65.78244269159359</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23023,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23038,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23077,10 +23077,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>35.29215968187918</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23181,10 +23181,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>138.7752875679986</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23193,13 +23193,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23263,13 +23263,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>345.5834682595418</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>215.7575993857079</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>1.772586778758907</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>198.5902886500603</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>92.83950704429036</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>236.1348066353661</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>39.5715651716215</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>57.13346535876789</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,13 +23737,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>310.4011377631406</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>25.24428266650682</v>
       </c>
     </row>
     <row r="18">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>75.62714773098897</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>66.84346944454961</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>86.97915439777097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24180,19 +24180,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>198.5902886500599</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>172.1623007152691</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24226,7 +24226,7 @@
         <v>289.4177123989346</v>
       </c>
       <c r="I23" t="n">
-        <v>22.03932652310337</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>97.63953186650195</v>
       </c>
       <c r="T23" t="n">
         <v>201.6995444026096</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9546296267578</v>
+        <v>181.8527735706879</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>6.498349287327528</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>131.9134704528542</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>149.6613214145371</v>
+        <v>165.7984845780255</v>
       </c>
       <c r="H25" t="n">
         <v>142.7339007323149</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>78.71085334059831</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>185.8073935452402</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>279.4923054371897</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>289.4177123989346</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,16 +24496,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>201.6995444026096</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>14.49254777960823</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>185.8073935452402</v>
       </c>
       <c r="T28" t="n">
-        <v>218.5776571846122</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>202.4474901886064</v>
+        <v>195.3154919841813</v>
       </c>
     </row>
     <row r="29">
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>28.53767581043098</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>220.3158563428646</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>289.4177123989346</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>97.63953186650195</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>201.6995444026096</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>69.37271404843118</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>218.5776571846122</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>176.6641343867783</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>230.2372202130415</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>289.4177123989346</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>97.63953186650195</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>94.2631422753381</v>
       </c>
       <c r="U32" t="n">
         <v>250.9546296267578</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>149.6613214145371</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>142.7339007323149</v>
@@ -25131,19 +25131,19 @@
         <v>218.5776571846122</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1994387321036</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>17.25439559719027</v>
       </c>
     </row>
     <row r="35">
@@ -25162,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>186.9796477638624</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>289.4177123989346</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>97.63953186650195</v>
       </c>
       <c r="T35" t="n">
         <v>201.6995444026096</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>181.8527735706868</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.7984845780255</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.7339007323149</v>
       </c>
       <c r="I37" t="n">
-        <v>89.51617734841122</v>
+        <v>89.5161773484112</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>78.71085334059833</v>
+        <v>78.71085334059831</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>185.8073935452402</v>
       </c>
       <c r="T37" t="n">
         <v>218.5776571846122</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1994387321036</v>
       </c>
       <c r="V37" t="n">
-        <v>169.6702303817524</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>219.0415441449462</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25402,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>363.7335164970223</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>97.63953186650195</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>94.26314227533945</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.9546296267578</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>32.10314290482687</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.7984845780255</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>142.7339007323149</v>
@@ -25599,22 +25599,22 @@
         <v>78.71085334059831</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>185.8073935452402</v>
       </c>
       <c r="T40" t="n">
-        <v>218.5776571846122</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1994387321036</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>169.6702303817517</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>22.03932652310337</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>97.63953186650195</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6995444026096</v>
+        <v>18.04570415010789</v>
       </c>
       <c r="U41" t="n">
         <v>250.9546296267578</v>
       </c>
       <c r="V41" t="n">
-        <v>220.3158563428638</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6948170184489</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,13 +25836,13 @@
         <v>78.71085334059831</v>
       </c>
       <c r="S43" t="n">
-        <v>102.0484488342603</v>
+        <v>185.8073935452402</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>218.5776571846122</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1994387321036</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>289.4177123989346</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,10 +25921,10 @@
         <v>201.6995444026096</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>143.5182274994868</v>
       </c>
       <c r="V44" t="n">
-        <v>181.8527735706877</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>78.71085334059831</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>185.8073935452402</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1994387321036</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>102.0484488342603</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>195.3154919841814</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>985250.1238371405</v>
+        <v>789698.3456849989</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>985250.1238371405</v>
+        <v>789698.345684999</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>985250.1238371405</v>
+        <v>789698.345684999</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>789698.3456849989</v>
+        <v>789698.3456849991</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>789698.3456849989</v>
+        <v>789698.3456849991</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>789698.345684999</v>
+        <v>789698.3456849991</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>789698.345684999</v>
+        <v>789698.3456849991</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>857752.6306857775</v>
+        <v>857752.6306857773</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>857752.6306857773</v>
+        <v>857752.6306857774</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>857752.6306857774</v>
+        <v>857752.6306857776</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>857752.6306857773</v>
+        <v>857752.6306857776</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>857752.6306857773</v>
+        <v>857752.6306857774</v>
       </c>
     </row>
     <row r="15">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253559</v>
+        <v>361945.0751056243</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253559</v>
+        <v>361945.0751056242</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253558</v>
+        <v>361945.0751056244</v>
       </c>
       <c r="E2" t="n">
-        <v>361945.0751056243</v>
+        <v>361945.0751056244</v>
       </c>
       <c r="F2" t="n">
         <v>361945.0751056244</v>
@@ -26331,13 +26331,13 @@
         <v>361945.0751056244</v>
       </c>
       <c r="H2" t="n">
-        <v>361945.0751056244</v>
+        <v>361945.0751056243</v>
       </c>
       <c r="I2" t="n">
-        <v>393136.6223976478</v>
+        <v>393136.6223976477</v>
       </c>
       <c r="J2" t="n">
-        <v>393136.6223976478</v>
+        <v>393136.6223976477</v>
       </c>
       <c r="K2" t="n">
         <v>393136.6223976478</v>
@@ -26346,7 +26346,7 @@
         <v>393136.6223976478</v>
       </c>
       <c r="M2" t="n">
-        <v>393136.6223976478</v>
+        <v>393136.6223976479</v>
       </c>
       <c r="N2" t="n">
         <v>393136.6223976478</v>
@@ -26368,7 +26368,7 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>1.469155386075727e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26377,7 +26377,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>135972.4039225091</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972777</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.029379647370662e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405262</v>
+        <v>584.646989006123</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>584.646989006123</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061228</v>
+        <v>584.646989006123</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061228</v>
+        <v>584.646989006123</v>
       </c>
       <c r="H4" t="n">
         <v>584.646989006123</v>
@@ -26444,13 +26444,13 @@
         <v>664.5935624199349</v>
       </c>
       <c r="K4" t="n">
-        <v>664.5935624199349</v>
+        <v>664.5935624199348</v>
       </c>
       <c r="L4" t="n">
         <v>664.5935624199349</v>
       </c>
       <c r="M4" t="n">
-        <v>664.5935624199346</v>
+        <v>664.5935624199349</v>
       </c>
       <c r="N4" t="n">
         <v>664.5935624199349</v>
@@ -26481,28 +26481,28 @@
         <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
+        <v>86446.95261279382</v>
+      </c>
+      <c r="J5" t="n">
+        <v>86446.95261279382</v>
+      </c>
+      <c r="K5" t="n">
         <v>86446.95261279383</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
+        <v>86446.95261279384</v>
+      </c>
+      <c r="M5" t="n">
         <v>86446.95261279383</v>
-      </c>
-      <c r="K5" t="n">
-        <v>86446.95261279382</v>
-      </c>
-      <c r="L5" t="n">
-        <v>86446.95261279382</v>
-      </c>
-      <c r="M5" t="n">
-        <v>86446.95261279382</v>
       </c>
       <c r="N5" t="n">
         <v>86446.95261279382</v>
@@ -26511,7 +26511,7 @@
         <v>86446.95261279383</v>
       </c>
       <c r="P5" t="n">
-        <v>86446.95261279382</v>
+        <v>86446.95261279383</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1078702.456967682</v>
+        <v>-1075725.657710184</v>
       </c>
       <c r="C6" t="n">
-        <v>250042.2887599099</v>
+        <v>253019.0880174078</v>
       </c>
       <c r="D6" t="n">
-        <v>250042.2887599099</v>
+        <v>253019.088017408</v>
       </c>
       <c r="E6" t="n">
-        <v>282980.0921770554</v>
+        <v>286646.688017408</v>
       </c>
       <c r="F6" t="n">
-        <v>282980.092177055</v>
+        <v>286646.688017408</v>
       </c>
       <c r="G6" t="n">
-        <v>282980.0921770557</v>
+        <v>286646.688017408</v>
       </c>
       <c r="H6" t="n">
-        <v>282980.0921770553</v>
+        <v>286646.6880174079</v>
       </c>
       <c r="I6" t="n">
-        <v>167396.4745259382</v>
+        <v>169787.0525225262</v>
       </c>
       <c r="J6" t="n">
-        <v>85837.67605116963</v>
+        <v>88228.25404775781</v>
       </c>
       <c r="K6" t="n">
-        <v>303368.8784484472</v>
+        <v>305759.4564450354</v>
       </c>
       <c r="L6" t="n">
-        <v>303368.8784484473</v>
+        <v>305759.4564450354</v>
       </c>
       <c r="M6" t="n">
-        <v>303368.8784484475</v>
+        <v>305759.4564450355</v>
       </c>
       <c r="N6" t="n">
-        <v>303368.8784484471</v>
+        <v>305759.4564450354</v>
       </c>
       <c r="O6" t="n">
-        <v>303368.8784484473</v>
+        <v>305759.4564450354</v>
       </c>
       <c r="P6" t="n">
-        <v>303368.8784484473</v>
+        <v>305759.4564450354</v>
       </c>
     </row>
   </sheetData>
@@ -26789,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
+        <v>985.8829587899507</v>
+      </c>
+      <c r="J4" t="n">
+        <v>985.8829587899507</v>
+      </c>
+      <c r="K4" t="n">
         <v>985.882958789951</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
+        <v>985.8829587899511</v>
+      </c>
+      <c r="M4" t="n">
         <v>985.882958789951</v>
-      </c>
-      <c r="K4" t="n">
-        <v>985.8829587899507</v>
-      </c>
-      <c r="L4" t="n">
-        <v>985.8829587899507</v>
-      </c>
-      <c r="M4" t="n">
-        <v>985.8829587899507</v>
       </c>
       <c r="N4" t="n">
         <v>985.8829587899507</v>
@@ -26831,7 +26831,7 @@
         <v>985.882958789951</v>
       </c>
       <c r="P4" t="n">
-        <v>985.8829587899507</v>
+        <v>985.882958789951</v>
       </c>
     </row>
   </sheetData>
@@ -26971,7 +26971,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27032,13 +27032,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>154.4815033876583</v>
+        <v>154.4815033876581</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022935</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>3.999641165065826e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>362.4386851003795</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.7439527351651</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>377.9418368861297</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7439527351646</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>307.276709502444</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.13331566353736e-12</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,37 +31831,37 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
@@ -31870,7 +31870,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31919,16 +31919,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
         <v>300.7247737883114</v>
@@ -31937,19 +31937,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780294</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,37 +32305,37 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32344,7 +32344,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32393,16 +32393,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
         <v>300.7247737883114</v>
@@ -32411,19 +32411,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780294</v>
@@ -32791,7 +32791,7 @@
         <v>247.078930873419</v>
       </c>
       <c r="K24" t="n">
-        <v>422.2972470157684</v>
+        <v>178.8457766008371</v>
       </c>
       <c r="L24" t="n">
         <v>567.8307633298643</v>
@@ -32806,7 +32806,7 @@
         <v>622.2223092284647</v>
       </c>
       <c r="P24" t="n">
-        <v>255.9367888286931</v>
+        <v>499.3882592436245</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33028,7 +33028,7 @@
         <v>247.078930873419</v>
       </c>
       <c r="K27" t="n">
-        <v>422.2972470157684</v>
+        <v>178.8457766008371</v>
       </c>
       <c r="L27" t="n">
         <v>567.8307633298643</v>
@@ -33043,7 +33043,7 @@
         <v>622.2223092284647</v>
       </c>
       <c r="P27" t="n">
-        <v>255.9367888286931</v>
+        <v>499.3882592436245</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33277,10 +33277,10 @@
         <v>680.1696078112842</v>
       </c>
       <c r="O30" t="n">
-        <v>622.2223092284647</v>
+        <v>378.7708388135333</v>
       </c>
       <c r="P30" t="n">
-        <v>255.9367888286931</v>
+        <v>499.3882592436245</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.887791013482973</v>
+        <v>4.887791013482974</v>
       </c>
       <c r="H35" t="n">
-        <v>50.05708971683251</v>
+        <v>50.05708971683252</v>
       </c>
       <c r="I35" t="n">
         <v>188.4365630473025</v>
       </c>
       <c r="J35" t="n">
-        <v>414.8451525306009</v>
+        <v>414.845152530601</v>
       </c>
       <c r="K35" t="n">
-        <v>621.7453461313353</v>
+        <v>621.7453461313354</v>
       </c>
       <c r="L35" t="n">
-        <v>771.330080360215</v>
+        <v>771.3300803602151</v>
       </c>
       <c r="M35" t="n">
-        <v>858.2533337962427</v>
+        <v>858.2533337962429</v>
       </c>
       <c r="N35" t="n">
-        <v>872.1407700133013</v>
+        <v>872.1407700133016</v>
       </c>
       <c r="O35" t="n">
-        <v>823.53779812298</v>
+        <v>823.5377981229801</v>
       </c>
       <c r="P35" t="n">
-        <v>702.870457477619</v>
+        <v>702.8704574776191</v>
       </c>
       <c r="Q35" t="n">
-        <v>527.8264418072598</v>
+        <v>527.8264418072599</v>
       </c>
       <c r="R35" t="n">
         <v>307.0327022507001</v>
@@ -33690,7 +33690,7 @@
         <v>21.39630516152173</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3910232810786378</v>
+        <v>0.3910232810786379</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,28 +33733,28 @@
         <v>25.25731422790347</v>
       </c>
       <c r="I36" t="n">
-        <v>90.04083410038247</v>
+        <v>90.0408341003825</v>
       </c>
       <c r="J36" t="n">
         <v>247.078930873419</v>
       </c>
       <c r="K36" t="n">
-        <v>422.2972470157683</v>
+        <v>422.2972470157684</v>
       </c>
       <c r="L36" t="n">
-        <v>567.8307633298642</v>
+        <v>567.8307633298643</v>
       </c>
       <c r="M36" t="n">
-        <v>662.6317179591202</v>
+        <v>662.6317179591204</v>
       </c>
       <c r="N36" t="n">
-        <v>680.1696078112841</v>
+        <v>680.1696078112842</v>
       </c>
       <c r="O36" t="n">
-        <v>622.2223092284646</v>
+        <v>622.2223092284647</v>
       </c>
       <c r="P36" t="n">
-        <v>255.9367888286935</v>
+        <v>255.9367888286931</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>48.57616973441012</v>
+        <v>48.57616973441014</v>
       </c>
       <c r="T36" t="n">
-        <v>10.54108618321674</v>
+        <v>10.54108618321675</v>
       </c>
       <c r="U36" t="n">
         <v>0.1720525492363997</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.192494780433245</v>
+        <v>2.192494780433246</v>
       </c>
       <c r="H37" t="n">
-        <v>19.49327177512468</v>
+        <v>19.49327177512469</v>
       </c>
       <c r="I37" t="n">
-        <v>65.93429757884707</v>
+        <v>65.93429757884708</v>
       </c>
       <c r="J37" t="n">
         <v>155.0093809766304</v>
@@ -33821,16 +33821,16 @@
         <v>254.7280299448806</v>
       </c>
       <c r="L37" t="n">
-        <v>325.9641785382299</v>
+        <v>325.96417853823</v>
       </c>
       <c r="M37" t="n">
-        <v>343.6835227182767</v>
+        <v>343.6835227182768</v>
       </c>
       <c r="N37" t="n">
         <v>335.5114967184804</v>
       </c>
       <c r="O37" t="n">
-        <v>309.8991713288737</v>
+        <v>309.8991713288738</v>
       </c>
       <c r="P37" t="n">
         <v>265.1722778080353</v>
@@ -33839,16 +33839,16 @@
         <v>183.5915402051875</v>
       </c>
       <c r="R37" t="n">
-        <v>98.58253803657115</v>
+        <v>98.58253803657118</v>
       </c>
       <c r="S37" t="n">
-        <v>38.20920449173208</v>
+        <v>38.20920449173209</v>
       </c>
       <c r="T37" t="n">
-        <v>9.367932243669317</v>
+        <v>9.367932243669319</v>
       </c>
       <c r="U37" t="n">
-        <v>0.119590624387268</v>
+        <v>0.1195906243872681</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127284</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L13" t="n">
         <v>157.2826706286436</v>
@@ -35582,13 +35582,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O16" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127284</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L19" t="n">
         <v>157.2826706286436</v>
@@ -36056,13 +36056,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>120.2413042067523</v>
       </c>
       <c r="K24" t="n">
-        <v>284.4558080414094</v>
+        <v>41.00433762647808</v>
       </c>
       <c r="L24" t="n">
         <v>429.2763835499902</v>
@@ -36454,7 +36454,7 @@
         <v>479.6260647840203</v>
       </c>
       <c r="P24" t="n">
-        <v>121.9623814143628</v>
+        <v>365.4138518292943</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>120.2413042067523</v>
       </c>
       <c r="K27" t="n">
-        <v>284.4558080414094</v>
+        <v>41.00433762647808</v>
       </c>
       <c r="L27" t="n">
         <v>429.2763835499902</v>
@@ -36691,7 +36691,7 @@
         <v>479.6260647840203</v>
       </c>
       <c r="P27" t="n">
-        <v>121.9623814143628</v>
+        <v>365.4138518292943</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36925,10 +36925,10 @@
         <v>548.8278957279509</v>
       </c>
       <c r="O30" t="n">
-        <v>479.6260647840203</v>
+        <v>236.1745943690889</v>
       </c>
       <c r="P30" t="n">
-        <v>121.9623814143628</v>
+        <v>365.4138518292943</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>233.7992480039146</v>
+        <v>233.7992480039147</v>
       </c>
       <c r="K35" t="n">
-        <v>401.6554950863547</v>
+        <v>401.6554950863548</v>
       </c>
       <c r="L35" t="n">
-        <v>535.5636653902277</v>
+        <v>535.5636653902279</v>
       </c>
       <c r="M35" t="n">
-        <v>627.90710056897</v>
+        <v>627.9071005689702</v>
       </c>
       <c r="N35" t="n">
-        <v>642.7277064167104</v>
+        <v>642.7277064167106</v>
       </c>
       <c r="O35" t="n">
-        <v>593.4395867012933</v>
+        <v>593.4395867012934</v>
       </c>
       <c r="P35" t="n">
-        <v>471.6374617223494</v>
+        <v>471.6374617223495</v>
       </c>
       <c r="Q35" t="n">
-        <v>305.5207519328103</v>
+        <v>305.5207519328104</v>
       </c>
       <c r="R35" t="n">
-        <v>91.44716443656796</v>
+        <v>91.44716443656802</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>120.2413042067523</v>
       </c>
       <c r="K36" t="n">
-        <v>284.4558080414093</v>
+        <v>284.4558080414094</v>
       </c>
       <c r="L36" t="n">
-        <v>429.27638354999</v>
+        <v>429.2763835499902</v>
       </c>
       <c r="M36" t="n">
-        <v>520.4976840371019</v>
+        <v>520.4976840371021</v>
       </c>
       <c r="N36" t="n">
-        <v>548.8278957279508</v>
+        <v>548.8278957279509</v>
       </c>
       <c r="O36" t="n">
-        <v>479.6260647840202</v>
+        <v>479.6260647840203</v>
       </c>
       <c r="P36" t="n">
-        <v>121.9623814143633</v>
+        <v>121.9623814143628</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>28.0139595372343</v>
+        <v>28.01395953723433</v>
       </c>
       <c r="K37" t="n">
-        <v>125.7147717743452</v>
+        <v>125.7147717743453</v>
       </c>
       <c r="L37" t="n">
-        <v>191.0795022569916</v>
+        <v>191.0795022569917</v>
       </c>
       <c r="M37" t="n">
         <v>204.7577387706717</v>
@@ -37478,13 +37478,13 @@
         <v>207.8259522532472</v>
       </c>
       <c r="O37" t="n">
-        <v>171.4426328770309</v>
+        <v>171.442632877031</v>
       </c>
       <c r="P37" t="n">
         <v>127.4442737588877</v>
       </c>
       <c r="Q37" t="n">
-        <v>32.08653857574163</v>
+        <v>32.08653857574166</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
